--- a/data/trans_dic/P62A$otras-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P62A$otras-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,71</t>
+          <t>0,17; 1,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 6,16</t>
+          <t>2,5; 6,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,26</t>
+          <t>2,36; 6,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,42; 33,35</t>
+          <t>24,86; 33,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,31</t>
+          <t>2,06; 5,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 9,06</t>
+          <t>4,71; 9,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,45; 15,1</t>
+          <t>8,23; 14,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,53; 18,33</t>
+          <t>12,99; 18,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,95</t>
+          <t>1,29; 3,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,05; 7,06</t>
+          <t>4,07; 7,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,8; 9,51</t>
+          <t>5,86; 9,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,94; 23,75</t>
+          <t>19,12; 24,08</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,06</t>
+          <t>0,0; 3,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 17,68</t>
+          <t>8,95; 17,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,73; 12,64</t>
+          <t>6,8; 12,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,66; 37,3</t>
+          <t>28,99; 36,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,86; 22,17</t>
+          <t>6,17; 20,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,15; 39,85</t>
+          <t>24,38; 38,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,53; 25,56</t>
+          <t>15,24; 26,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,63; 29,24</t>
+          <t>5,2; 29,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 8,59</t>
+          <t>2,59; 8,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,38; 24,3</t>
+          <t>16,83; 24,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,99; 16,82</t>
+          <t>11,14; 16,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,77; 31,71</t>
+          <t>11,29; 31,67</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,14</t>
+          <t>0,0; 8,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,97</t>
+          <t>0,0; 10,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 16,28</t>
+          <t>1,5; 15,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,89; 32,83</t>
+          <t>19,09; 33,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,77</t>
+          <t>0,0; 11,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 34,39</t>
+          <t>6,85; 34,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 27,43</t>
+          <t>8,54; 29,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,22; 29,14</t>
+          <t>14,32; 28,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,66</t>
+          <t>0,0; 7,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 17,26</t>
+          <t>3,85; 17,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 17,32</t>
+          <t>5,58; 18,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,48; 28,77</t>
+          <t>18,97; 29,44</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,73</t>
+          <t>0,37; 1,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 8,94</t>
+          <t>5,14; 8,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,38</t>
+          <t>4,98; 8,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,33; 33,25</t>
+          <t>27,72; 33,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,97</t>
+          <t>3,21; 6,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,51; 15,45</t>
+          <t>10,6; 15,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,07; 17,59</t>
+          <t>12,12; 17,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,0; 21,39</t>
+          <t>8,79; 21,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,56</t>
+          <t>1,8; 3,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 11,34</t>
+          <t>8,2; 11,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,67; 11,68</t>
+          <t>8,73; 11,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 26,28</t>
+          <t>16,08; 26,4</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe otro tipo de pensión</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3484</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>22452</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17708</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>86331</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15860</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35266</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>48032</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>58036</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19343</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>57718</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>65740</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>144367</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>869; 8071</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>13722; 34279</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10390; 27200</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>74310; 101025</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9271; 24476</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>25260; 49378</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>35018; 62593</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>49061; 69190</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12386; 29754</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>44180; 79516</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>50716; 84345</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>129348; 162904</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2047</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>35883</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>36627</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>128294</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10325</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>54420</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>51685</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>77836</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12372</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>90302</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>88312</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>206130</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6107</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24644; 49183</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>26350; 49053</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>113698; 144813</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5245; 17511</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>41603; 66367</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>39221; 66976</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>25171; 140977</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6507; 21710</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>75102; 108643</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>71857; 107522</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>98855; 277422</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>937</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3987</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>27715</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6390</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8670</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15563</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1945</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7327</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12657</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>43277</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5289</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4757</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1043; 11035</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20680; 35900</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4910</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2438; 12226</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4505; 15374</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10590; 21225</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7155</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3126; 14493</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6814; 22305</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>34577; 53679</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6458</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>59271</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>58322</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>242339</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>27202</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>96076</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>108387</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>151435</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>33660</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>155347</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>166709</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>393774</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2732; 12874</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>44746; 76908</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>44719; 74952</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>221612; 264341</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>18477; 38851</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>78783; 116333</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>89137; 129602</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>82184; 199918</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>23706; 46446</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>132340; 182109</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>142494; 194706</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>278943; 457869</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>